--- a/inst/shiny/www/demo/iTReX-Demo_MRA_Layout-Imaging-1Plate_ST06.xlsx
+++ b/inst/shiny/www/demo/iTReX-Demo_MRA_Layout-Imaging-1Plate_ST06.xlsx
@@ -235,7 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Concentration of applied therapy
-Usually given in nM, which is currently hard-coded in the app. Please verify results when using other units (µM, Gy, …).
  </t>
   </si>
   <si>
